--- a/biology/Médecine/Entreprise_en_santé/Entreprise_en_santé.xlsx
+++ b/biology/Médecine/Entreprise_en_santé/Entreprise_en_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entreprise_en_sant%C3%A9</t>
+          <t>Entreprise_en_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Entreprise en santé est une norme du Bureau de normalisation du Québec qui vise à reconnaître les pratiques en matière de prévention, promotion et pratiques organisationnelles favorables à la santé en milieu de travail[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Entreprise en santé est une norme du Bureau de normalisation du Québec qui vise à reconnaître les pratiques en matière de prévention, promotion et pratiques organisationnelles favorables à la santé en milieu de travail.
 La norme comporte 5 exigences principales :
 Un engagement de la direction dans des pratiques qui favorisent la santé et le mieux-être de son personnel
 La mise en place d'un comité de santé et mieux-être afin de recueillir les suggestions du personnel
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entreprise_en_sant%C3%A9</t>
+          <t>Entreprise_en_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,10 +533,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme qui a été mise en place au mois d'octobre 2008, est une initiative du Gp2S (maintenant connu sous le nom de Groupe entreprises en santé). Elle a été développée avec le soutien financier de la CSST, de Desjardins Sécurité financière, du Ministère de la Santé et des Services sociaux et de Power Corporation du Canada.
-Début juin 2014, 53 entreprises étaient certifiées[2].
+Début juin 2014, 53 entreprises étaient certifiées.
 </t>
         </is>
       </c>
